--- a/medicine/Mort/Terrorisme_en_1996/Terrorisme_en_1996.xlsx
+++ b/medicine/Mort/Terrorisme_en_1996/Terrorisme_en_1996.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -525,38 +537,312 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-9 janvier, Russie : prise d'otages de Kizliar-Pervomaïskoïe.
-14 janvier, Algérie : une voiture piégée explose à Blida, faisant quinze morts et plus de quarante blessés[1].
-27 janvier, Algérie : un camion piégé contenant plus de 200 kg d'explosifs saute devant le commissariat de Sidi Moussa, dans la banlieue d'Alger, tuant quatre personnes[1],[2]
-31 janvier, Algérie : deux bombes, l'une à Baraki près d'Alger, l'autre à Khemis El Khechna près de Boumerdès, font une quinzaine de morts[1].
-31 janvier, Sri Lanka : un attentat-suicide contre la Banque centrale de Colombo fait quatre-vingt-six morts et plus de mille quatre cents blessés. Il est revendiqué par les Tigres Tamouls[3],[4].
-Février
-5 février, Algérie : une voiture piégée explose près de l'hôpital de Bouira, faisant cinq morts et vingt-deux blessés[1],[5].
-9 février, Royaume-Uni : un attentat de l'IRA provisoire contre les docks de Londres fait deux morts et quarante-trois blessés, mettant fin à dix-sept mois de cessez-le-feu[6].
-11 février, Algérie : une bombe contre la maison de la presse à Alger fait dix-neuf morts[1].
-entre le 25 février et 4 mars, Israël : quatre attaques du Hamas, à Jérusalem, Ashkelon, et Tel Aviv font cinquante-huit morts[7].
-Mars
-16 mars 1996, france : un attentat contre le centre des impôts a Bayonne.pas de mort mais des blessés dont une fillette de 9 ans transporté au centre hospitalier bayonnais.attentat perpétré par le groupe terroriste iparretarrak.
-Avril
-19 avril 1996, Égypte : un attentat contre l'hôtel Europa provoque la mort de dix-huit personnes et fait quinze blessés[8].
-Mai
-21 mai, Algérie : le GIA revendique l'enlèvement et l'assassinat des moines de Tibhirine, après deux mois de séquestration. En 2016, les circonstances de leur mort demeurent toujours mystérieuses[9].
-Juin
-11 juin, Russie : l'explosion d'une bombe dans le métro de Moscou, entre les stations Toulskaïa et Nagatinskaïa, fait quatre morts et quatorze blessés. L'attentat est attribué à des indépendantistes tchétchènes[10].
-25 juin, Arabie saoudite : un attentat-suicide contre une base militaire américaine à Dhahran, attribué à Al-Qaïda, fait vingt morts[7].
-30 juin, Turquie : un attentat-suicide à la ceinture piégée, revendiqué par le PKK à Tunceli, fait neuf morts[7].
-Juillet
-27 juillet, États-Unis : une bombe de fabrication artisanale explose en pleine nuit à l'intérieur du parc olympique d'Atlanta. L'explosion fait un mort et une centaine de blessés[11],[12].
-Août
-Septembre
-Octobre
-25 octobre, Turquie : un attentat à la ceinture piégée, revendiqué par le PKK, à Adana, fait quatre morts[7].
-29 octobre, Turquie : un attentat à la ceinture piégée, revendiqué par le PKK, à Sivas, fait quatre morts[7].
-Novembre
-Décembre
-3 décembre, France : une bombe explose dans le RER B à Port-Royal à Paris, faisant quatre morts et cent soixante-dix blessés[13],[10],[14].
-3 décembre, France : une tentative d'attentat au colis piégé, dirigée contre le journal Tribune juive, échoue[15]. Douze militants néonazis sont arrêtés en janvier 1997 par les enquêteurs de la brigade criminelle et des renseignements généraux de la préfecture de Paris[16].</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 janvier, Russie : prise d'otages de Kizliar-Pervomaïskoïe.
+14 janvier, Algérie : une voiture piégée explose à Blida, faisant quinze morts et plus de quarante blessés.
+27 janvier, Algérie : un camion piégé contenant plus de 200 kg d'explosifs saute devant le commissariat de Sidi Moussa, dans la banlieue d'Alger, tuant quatre personnes,
+31 janvier, Algérie : deux bombes, l'une à Baraki près d'Alger, l'autre à Khemis El Khechna près de Boumerdès, font une quinzaine de morts.
+31 janvier, Sri Lanka : un attentat-suicide contre la Banque centrale de Colombo fait quatre-vingt-six morts et plus de mille quatre cents blessés. Il est revendiqué par les Tigres Tamouls,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 février, Algérie : une voiture piégée explose près de l'hôpital de Bouira, faisant cinq morts et vingt-deux blessés,.
+9 février, Royaume-Uni : un attentat de l'IRA provisoire contre les docks de Londres fait deux morts et quarante-trois blessés, mettant fin à dix-sept mois de cessez-le-feu.
+11 février, Algérie : une bombe contre la maison de la presse à Alger fait dix-neuf morts.
+entre le 25 février et 4 mars, Israël : quatre attaques du Hamas, à Jérusalem, Ashkelon, et Tel Aviv font cinquante-huit morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 mars 1996, france : un attentat contre le centre des impôts a Bayonne.pas de mort mais des blessés dont une fillette de 9 ans transporté au centre hospitalier bayonnais.attentat perpétré par le groupe terroriste iparretarrak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19 avril 1996, Égypte : un attentat contre l'hôtel Europa provoque la mort de dix-huit personnes et fait quinze blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>21 mai, Algérie : le GIA revendique l'enlèvement et l'assassinat des moines de Tibhirine, après deux mois de séquestration. En 2016, les circonstances de leur mort demeurent toujours mystérieuses.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11 juin, Russie : l'explosion d'une bombe dans le métro de Moscou, entre les stations Toulskaïa et Nagatinskaïa, fait quatre morts et quatorze blessés. L'attentat est attribué à des indépendantistes tchétchènes.
+25 juin, Arabie saoudite : un attentat-suicide contre une base militaire américaine à Dhahran, attribué à Al-Qaïda, fait vingt morts.
+30 juin, Turquie : un attentat-suicide à la ceinture piégée, revendiqué par le PKK à Tunceli, fait neuf morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>27 juillet, États-Unis : une bombe de fabrication artisanale explose en pleine nuit à l'intérieur du parc olympique d'Atlanta. L'explosion fait un mort et une centaine de blessés,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>25 octobre, Turquie : un attentat à la ceinture piégée, revendiqué par le PKK, à Adana, fait quatre morts.
+29 octobre, Turquie : un attentat à la ceinture piégée, revendiqué par le PKK, à Sivas, fait quatre morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1996</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 décembre, France : une bombe explose dans le RER B à Port-Royal à Paris, faisant quatre morts et cent soixante-dix blessés.
+3 décembre, France : une tentative d'attentat au colis piégé, dirigée contre le journal Tribune juive, échoue. Douze militants néonazis sont arrêtés en janvier 1997 par les enquêteurs de la brigade criminelle et des renseignements généraux de la préfecture de Paris.</t>
         </is>
       </c>
     </row>
